--- a/pre/fater/bg/slimatika/_Преленд 7 Slimatika пот на карантине BG.xlsx
+++ b/pre/fater/bg/slimatika/_Преленд 7 Slimatika пот на карантине BG.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="151">
   <si>
     <t>Slimatika</t>
   </si>
@@ -70,7 +70,18 @@
     <t>капки Slimatika</t>
   </si>
   <si>
-    <t>Здравейте, всички дебелани и тези, които  комплексират заради наднормено тегло! Не мога да мълча - наистина искам да споделя радостта си и съм сигурна, че моята история ще помогне на много хора да се отърват от излишните килограми.</t>
+    <r>
+      <t>Здравейте</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> на</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> всички дебелани и тези, които  комплексират заради наднормено тегло! Не мога да мълча - наистина искам да споделя радостта си и съм сигурна, че моята история ще помогне на много хора да се отърват от излишните килограми.</t>
+    </r>
   </si>
   <si>
     <t>181 коментара</t>
@@ -94,7 +105,18 @@
     <t>Това съм аз до карантината</t>
   </si>
   <si>
-    <t xml:space="preserve">И тогава обявиха карантина! Докато седях вкъщи, не само, че двигателната активност напълно изчезна, но започнах да експериментирам с приготвянето на нови ястия.  За един месец не само че не свалих </t>
+    <r>
+      <t xml:space="preserve">И тогава обявиха карантина! Докато седях вкъщи, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>освен</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> че двигателната активност напълно изчезна, но започнах да експериментирам с приготвянето на нови ястия.  За един месец не само че не свалих </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">своите излишни 10 кг, </t>
@@ -118,7 +140,19 @@
     <t>имат ограничения. Някои не могат да се използват от хора с високо кръвно налягане, други не се препоръчват при алергии, а трети имат куп странични ефекти - слаба коса, суха кожа и т.н.</t>
   </si>
   <si>
-    <t>Да, освен това много препарати трябва да се приемат много дълго време, за да се постигне резултат. А това не са малко пари!</t>
+    <r>
+      <t xml:space="preserve">Да, освен това много препарати трябва да се приемат </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>много</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> дълго време, за да се постигне резултат. А това не са малко пари!</t>
+    </r>
   </si>
   <si>
     <t>И тогава видях статията за</t>
@@ -151,7 +185,28 @@
     <t xml:space="preserve">И реших да си купя капките </t>
   </si>
   <si>
-    <t>Това, между другото, съм аз съм в пика на теглото си по време на карантината и след курса със Slimatika</t>
+    <r>
+      <t xml:space="preserve">Това </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>съм аз</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>в пика на теглото си</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> по време на карантината и след курса със Slimatika</t>
+    </r>
   </si>
   <si>
     <t>Система на приемане</t>
@@ -160,7 +215,18 @@
     <t>Първото нещо, което ми хареса,</t>
   </si>
   <si>
-    <t>това е подробната инструкция, ясна и компетентна. Веднага става ясно как се изчислява дозата за конкретни килограми. Можете да отслабнете по бързата програма (приемате повече капки Slimatika) или по по-бавния сценарии.</t>
+    <r>
+      <t xml:space="preserve">това е подробната инструкция, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>точна</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> и компетентна. Веднага става ясно как се изчислява дозата за конкретни килограми. Можете да отслабнете по бързата програма (приемате повече капки Slimatika) или по по-бавния сценарии.</t>
+    </r>
   </si>
   <si>
     <t>Тъй като трябваше да отслабна бързо, реших  се на ускорената програма.</t>
@@ -232,10 +298,33 @@
     <t>даже ако режимът на хранене остане същия.</t>
   </si>
   <si>
-    <t>И още нещо  важно: тези капки може да се приемат, дори  ако пиете алкохол. Те не са противопоказани при никакви продукти. То есть, не надо себя ни в чем ограничивать. Всъщност, не трябва да се ограничавате в нищо.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Но разбира се, струва си да се обърне внимание на това, да не се преяжда и менюто да бъде разумно, а не свръхкалорично. </t>
+    <r>
+      <t>И още нещо  важно: тези капки може да се приемат, дори  ако пиете алкохол. Те не са противопоказани при никакви продукти.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> То есть, не надо себя ни в чем ограничивать.</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> Всъщност, не трябва да се ограничавате в нищо.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Но разбира се, струва си да се обърне внимание на това, да не се преяжда и менюто да бъде разумно, а не </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>свръх</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> калорично. </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Гладка кожа и </t>
@@ -262,7 +351,15 @@
     <t>Първата седмица с капките</t>
   </si>
   <si>
-    <t>минус 6,5 килограма. Излишната вода изчезна, подуването изчезна. Втората седмица - минус 5 килограма. Започнах по-лесно да дишам, появи се някаква допълнителна енергия. Третата седмица - още минус пет килограма. Но през третата седмица намалих дозата на капките</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> минус 6,5 килограма. Излишната вода изчезна, подуването изчезна. Втората седмица - минус 5 килограма. Започнах по-лесно да дишам, появи се някаква допълнителна енергия. Третата седмица - още минус пет килограма. Но през третата седмица намалих дозата на капките</t>
+    </r>
   </si>
   <si>
     <t>Slimatika.</t>
@@ -286,7 +383,7 @@
     <t>И най-интересното е, че мазнините не изчезват равномерно, а в началото те се стопяват от най-проблемните места. Това означава, че продуктът започва да действа върху тези многогодишни мастни слоеве, които, ни се струва, че са с нас завинаги. И ето,  Slimatika  взе, че ги  разтвори всичките!</t>
   </si>
   <si>
-    <t xml:space="preserve">Отличный, эффективный, действенный препарат. Рекомендую всем! На пляж уже ходила - своей фигурой еще довольна не на 100 процентов, но с каплями Slimatika я к этой цели близка! </t>
+    <t xml:space="preserve">Отлично, много ефективно  средство за отслабване. Препоръчвам го на всички! Ходих вече на плажа -  все още не съм 100 процента  доволна от фигурата си, но с капките Slimatika съм близо до  целта! </t>
   </si>
   <si>
     <t>Нора Каменова 32 г.</t>
@@ -307,10 +404,30 @@
     <t xml:space="preserve"> Капките</t>
   </si>
   <si>
-    <t>ми подействаха вълшебно: първата седмица загубих два килограма, а за един месец - седем. Вече почти четири месеца не приемам препарата, но теглото не се връща. През есента отново ще повторя курса, трябва да сваля още 4-5 килограма. Развълнуван съм от резултата, препоръчвам ги на всичките си познати.</t>
-  </si>
-  <si>
-    <t>капли Slimatika.</t>
+    <r>
+      <t xml:space="preserve">ми подействаха вълшебно: първата седмица загубих два килограма, а за един месец - седем. Вече почти четири месеца не приемам препарата, но теглото не се връща. През есента отново ще повторя курса, трябва да сваля още 4-5 килограма. Развълнуван съм от резултата, препоръчвам </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">ги </t>
+    </r>
+    <r>
+      <t>на всичките си познати</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>капките</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> Slimatika.</t>
+    </r>
   </si>
   <si>
     <t>Много се радвам за Вас, Стефан, отлични резултати)</t>
@@ -361,13 +478,35 @@
     <t>-Добър ден, Николай. Правилно, че не вярвате, защото най-доброто доказателство за ефективността на всеки препарат е да го пробвате сам. Постарайте се да приемате</t>
   </si>
   <si>
-    <t>капли Slimatika</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>капките</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> Slimatika</t>
+    </r>
   </si>
   <si>
     <t>поне две-три седмици и ще се убедите в ефективността на този продукт.</t>
   </si>
   <si>
     <t>Мина</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>К</t>
+    </r>
+    <r>
+      <t>апките Slimatika</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">са подходящи дори за мързеливи хора като мен, които нямат време да ходят на фитнес и да тичат сутрин. Идеалният вариант е да изпиеш хапчето и то да започне да работи върху тялото ти. Отлично въздейства върху излишната мазнина - резултатите се забелязват още на третия ден. Теглото намалява лесно и безболезнено! </t>
@@ -846,7 +985,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -859,6 +998,10 @@
     <font/>
     <font>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -876,16 +1019,22 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1156,7 +1305,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1186,152 +1335,152 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1341,192 +1490,192 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1536,7 +1685,7 @@
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1546,12 +1695,12 @@
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1561,57 +1710,57 @@
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1621,122 +1770,122 @@
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1746,173 +1895,173 @@
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="4" t="s">
-        <v>123</v>
+      <c r="A143" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="4" t="s">
-        <v>124</v>
+      <c r="A144" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="4" t="s">
-        <v>125</v>
+      <c r="A145" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="4" t="s">
-        <v>126</v>
+      <c r="A147" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="4" t="s">
-        <v>127</v>
+      <c r="A149" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="4" t="s">
-        <v>128</v>
+      <c r="A150" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="4" t="s">
-        <v>129</v>
+      <c r="A151" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="4" t="s">
-        <v>130</v>
+      <c r="A152" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="4" t="s">
-        <v>131</v>
+      <c r="A153" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="4" t="s">
-        <v>132</v>
+      <c r="A154" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="4" t="s">
-        <v>133</v>
+      <c r="A155" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="4" t="s">
-        <v>134</v>
+      <c r="A156" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="4" t="s">
-        <v>135</v>
+      <c r="A157" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="4" t="s">
-        <v>136</v>
+      <c r="A158" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="4" t="s">
-        <v>137</v>
+      <c r="A159" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="4" t="s">
-        <v>138</v>
+      <c r="A160" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="4" t="s">
-        <v>139</v>
+      <c r="A161" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1"/>
@@ -2767,47 +2916,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
